--- a/Fase3_ValueBettingAnalysis/KNN_RFOutliers/PercentagePointDifference/40pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/KNN_RFOutliers/PercentagePointDifference/40pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,21 @@
           <t>DiffA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffH</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +707,15 @@
       <c r="AE2" t="n">
         <v>-0.03314702857957538</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-48.71085280904382</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>243.6038706282688</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-40.86062950963619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +819,15 @@
       <c r="AE3" t="n">
         <v>-0.3993959626028886</v>
       </c>
+      <c r="AF3" t="n">
+        <v>286.9885927181368</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-39.2996560972739</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-67.41818389003539</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,6 +931,15 @@
       <c r="AE4" t="n">
         <v>0.4050009846844465</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-54.56851517842885</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-98.65935233205832</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>83.15846244736281</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1001,6 +1043,15 @@
       <c r="AE5" t="n">
         <v>0.4717977678126872</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-43.67759698329368</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-90.69867998855281</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>234.7040466907479</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1104,6 +1155,15 @@
       <c r="AE6" t="n">
         <v>-0.1549328242658314</v>
       </c>
+      <c r="AF6" t="n">
+        <v>172.0083071947989</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-90.61870614690854</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-31.62581571289244</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1207,6 +1267,15 @@
       <c r="AE7" t="n">
         <v>-0.1561482635204688</v>
       </c>
+      <c r="AF7" t="n">
+        <v>130.3457862963265</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-91.04897649428774</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-39.1669949284875</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1310,6 +1379,15 @@
       <c r="AE8" t="n">
         <v>-0.1880542931345939</v>
       </c>
+      <c r="AF8" t="n">
+        <v>131.4765654929097</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-76.13496533500982</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-45.77652249466628</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1413,6 +1491,15 @@
       <c r="AE9" t="n">
         <v>-0.001865167210306086</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-49.65036088355349</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>317.9375466845668</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-3.163004911075423</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1516,6 +1603,15 @@
       <c r="AE10" t="n">
         <v>0.4259008538931937</v>
       </c>
+      <c r="AF10" t="n">
+        <v>-48.9439867359642</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-97.3403852641151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>102.5406107219458</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1619,6 +1715,15 @@
       <c r="AE11" t="n">
         <v>-0.1360464359171103</v>
       </c>
+      <c r="AF11" t="n">
+        <v>99.39758582559348</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-91.79089618122693</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-44.08609387592223</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1722,6 +1827,15 @@
       <c r="AE12" t="n">
         <v>-0.1791742831314475</v>
       </c>
+      <c r="AF12" t="n">
+        <v>107.6433103525651</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-89.9494393389659</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-57.82799883402163</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1825,6 +1939,15 @@
       <c r="AE13" t="n">
         <v>0.4198037581876799</v>
       </c>
+      <c r="AF13" t="n">
+        <v>-59.45584859884564</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-97.35980083521993</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>90.74517391536274</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1928,6 +2051,15 @@
       <c r="AE14" t="n">
         <v>-0.193356460423541</v>
       </c>
+      <c r="AF14" t="n">
+        <v>111.0656325879858</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-81.70114946464417</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-57.61014170634851</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2031,6 +2163,15 @@
       <c r="AE15" t="n">
         <v>0.4048380088068175</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-48.55405326624215</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-95.97052348961377</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>91.44114061440872</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2134,6 +2275,15 @@
       <c r="AE16" t="n">
         <v>0.4276264541503093</v>
       </c>
+      <c r="AF16" t="n">
+        <v>-49.10946300475737</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-91.19605216793511</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>130.4552806361366</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2236,6 +2386,15 @@
       </c>
       <c r="AE17" t="n">
         <v>0.4579914770404929</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>-47.2694493887091</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-89.982492504235</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>158.8284132442247</v>
       </c>
     </row>
   </sheetData>
